--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_No_lineal_Estacionario_SETAR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-1.791066736993696</v>
+        <v>-1.55324362309513</v>
       </c>
       <c r="D2">
-        <v>0.07346265474242464</v>
+        <v>0.1346333785478824</v>
       </c>
       <c r="E2">
         <v>0.6189527525933876</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.7683900224066362</v>
+        <v>0.7774180774052073</v>
       </c>
       <c r="D3">
-        <v>0.4423635656417537</v>
+        <v>0.4451920976289536</v>
       </c>
       <c r="E3">
         <v>0.6189527525933876</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.2657262205605479</v>
+        <v>0.2823055712839438</v>
       </c>
       <c r="D4">
-        <v>0.7904826913938472</v>
+        <v>0.7803480514046477</v>
       </c>
       <c r="E4">
         <v>0.6189527525933876</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.8371237664057785</v>
+        <v>-0.8606525048558071</v>
       </c>
       <c r="D5">
-        <v>0.4026421372286584</v>
+        <v>0.3987122780728476</v>
       </c>
       <c r="E5">
         <v>0.6189527525933876</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>2.396765733163066</v>
+        <v>1.809929420912749</v>
       </c>
       <c r="D6">
-        <v>0.01664926088267538</v>
+        <v>0.08398987302679695</v>
       </c>
       <c r="E6">
         <v>0.6653160535301457</v>
@@ -557,7 +554,7 @@
         <v>0.6023804666589008</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>60</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>2.018198287671377</v>
+        <v>1.928741580409353</v>
       </c>
       <c r="D7">
-        <v>0.043729372202304</v>
+        <v>0.0667644908603513</v>
       </c>
       <c r="E7">
         <v>0.6653160535301457</v>
@@ -583,7 +580,7 @@
         <v>0.6126661945531745</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>100</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.005251627525118</v>
+        <v>1.122257978133634</v>
       </c>
       <c r="D8">
-        <v>0.3149205502223964</v>
+        <v>0.2738522188084636</v>
       </c>
       <c r="E8">
         <v>0.6653160535301457</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.5158560425779142</v>
+        <v>-0.4909019660346601</v>
       </c>
       <c r="D9">
-        <v>0.6060228781181984</v>
+        <v>0.6283569104521249</v>
       </c>
       <c r="E9">
         <v>0.6023804666589008</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-1.520192148117172</v>
+        <v>-1.200408582264379</v>
       </c>
       <c r="D10">
-        <v>0.1286509738674306</v>
+        <v>0.2427473742636959</v>
       </c>
       <c r="E10">
         <v>0.6023804666589008</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.105014360716307</v>
+        <v>-0.9560022139247716</v>
       </c>
       <c r="D11">
-        <v>0.2693116879088857</v>
+        <v>0.3494591377916509</v>
       </c>
       <c r="E11">
         <v>0.6126661945531745</v>
